--- a/src/main/resources/template/excel/export/DOSheet.xlsx
+++ b/src/main/resources/template/excel/export/DOSheet.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27570" windowHeight="11505"/>
+    <workbookView windowWidth="21330" windowHeight="6600"/>
   </bookViews>
   <sheets>
     <sheet name="订单模板" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">订单模板!$I$6:$J$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">订单模板!$A$1:$J$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">订单模板!$J$6:$K$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">订单模板!$A$1:$K$21</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <oleSize ref="A1:Y25"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>门店订货清单</t>
   </si>
@@ -86,6 +86,9 @@
     <t>订货单位</t>
   </si>
   <si>
+    <t>箱数</t>
+  </si>
+  <si>
     <t>订货数量</t>
   </si>
   <si>
@@ -111,6 +114,9 @@
   </si>
   <si>
     <t>${obj.price}</t>
+  </si>
+  <si>
+    <t>${obj.largeNum}</t>
   </si>
   <si>
     <t>${obj.dealNum}</t>
@@ -210,15 +216,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="\¥#,##0.000_);[Red]\(\¥#,##0.000\)"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -281,24 +286,57 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,8 +350,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,14 +367,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -352,70 +398,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -427,6 +409,29 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -451,43 +456,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,25 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,7 +516,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,19 +558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,7 +570,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,7 +612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,19 +624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,7 +635,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -735,6 +740,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -753,6 +767,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -764,15 +787,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,22 +806,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,17 +836,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,8 +848,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,10 +879,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -868,139 +891,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1126,22 +1149,31 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1150,10 +1182,16 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1165,14 +1203,44 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1520,10 +1588,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFC25"/>
+  <dimension ref="A1:XFD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1536,12 +1604,13 @@
     <col min="6" max="6" width="4.875" style="3" customWidth="1"/>
     <col min="7" max="7" width="6" style="3" customWidth="1"/>
     <col min="8" max="8" width="7.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="5.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="9" max="9" width="6" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.25" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" customHeight="1" spans="1:10">
+    <row r="1" ht="42" customHeight="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1553,9 +1622,10 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="42"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="42"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="17.1" customHeight="1" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="17.1" customHeight="1" spans="1:11">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1568,8 +1638,9 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:10">
+    <row r="3" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:11">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1590,8 +1661,9 @@
       </c>
       <c r="I3" s="43"/>
       <c r="J3" s="44"/>
+      <c r="K3" s="45"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="0.75" customHeight="1" spans="1:10">
+    <row r="4" s="2" customFormat="1" ht="0.75" customHeight="1" spans="1:11">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="11"/>
@@ -1600,10 +1672,11 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="48"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="10.5" customHeight="1" spans="1:10">
+    <row r="5" s="2" customFormat="1" ht="10.5" customHeight="1" spans="1:11">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="11"/>
@@ -1618,10 +1691,11 @@
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+    <row r="6" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
@@ -1630,46 +1704,52 @@
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="52" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="20.25" customHeight="1" spans="1:10">
-      <c r="A7" s="11" t="s">
+      <c r="K6" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="18" t="s">
+    </row>
+    <row r="7" s="2" customFormat="1" ht="20.25" customHeight="1" spans="1:11">
+      <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>16</v>
       </c>
+      <c r="E7" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="52" t="s">
+      <c r="I7" s="54" t="s">
         <v>20</v>
       </c>
+      <c r="J7" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="56" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="8" ht="27.95" customHeight="1" spans="1:10">
+    <row r="8" ht="27.95" customHeight="1" spans="1:11">
       <c r="A8" s="24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -1678,21 +1758,25 @@
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="26"/>
-      <c r="I8" s="51">
+      <c r="I8" s="57">
         <f>SUM(I7:I7)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="52" t="s">
-        <v>22</v>
+      <c r="J8" s="55">
+        <f>SUM(J7:J7)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="56" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="27.95" customHeight="1" spans="1:16383">
+    <row r="9" customFormat="1" ht="27.95" customHeight="1" spans="1:16384">
       <c r="A9" s="24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -1700,8 +1784,8 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="3"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="58"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -18074,14 +18158,15 @@
       <c r="XFA9" s="3"/>
       <c r="XFB9" s="3"/>
       <c r="XFC9" s="3"/>
+      <c r="XFD9" s="3"/>
     </row>
-    <row r="10" ht="27.95" customHeight="1" spans="1:10">
+    <row r="10" ht="27.95" customHeight="1" spans="1:11">
       <c r="A10" s="24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -18089,11 +18174,12 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="54"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="59"/>
     </row>
-    <row r="11" ht="27.95" customHeight="1" spans="1:10">
+    <row r="11" ht="27.95" customHeight="1" spans="1:11">
       <c r="A11" s="29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -18104,98 +18190,104 @@
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
     </row>
-    <row r="12" ht="18" customHeight="1" spans="1:10">
+    <row r="12" ht="18" customHeight="1" spans="1:11">
       <c r="A12" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="60"/>
     </row>
-    <row r="13" ht="19.5" customHeight="1" spans="1:10">
+    <row r="13" ht="19.5" customHeight="1" spans="1:11">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="59"/>
     </row>
-    <row r="14" ht="21.75" customHeight="1" spans="1:10">
+    <row r="14" ht="21.75" customHeight="1" spans="1:11">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="60"/>
     </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:10">
+    <row r="15" ht="22.5" customHeight="1" spans="1:11">
       <c r="A15" s="30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="31"/>
       <c r="F15" s="32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
-      <c r="I15" s="56" t="s">
-        <v>36</v>
+      <c r="I15" s="61" t="s">
+        <v>38</v>
       </c>
-      <c r="J15" s="56"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="63"/>
     </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:10">
+    <row r="16" ht="22.5" customHeight="1" spans="1:11">
       <c r="A16" s="31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="32"/>
-      <c r="I16" s="57" t="s">
-        <v>39</v>
+      <c r="I16" s="64" t="s">
+        <v>41</v>
       </c>
-      <c r="J16" s="57"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="66"/>
     </row>
-    <row r="17" ht="18" customHeight="1" spans="1:10">
+    <row r="17" ht="18" customHeight="1" spans="1:11">
       <c r="A17" s="33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B17" s="34"/>
       <c r="C17" s="35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
@@ -18203,11 +18295,12 @@
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
-      <c r="J17" s="58"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="67"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1" spans="1:10">
+    <row r="18" ht="15.75" customHeight="1" spans="1:11">
       <c r="A18" s="32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -18218,14 +18311,15 @@
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
     </row>
-    <row r="19" ht="31" customHeight="1" spans="1:10">
+    <row r="19" ht="31" customHeight="1" spans="1:11">
       <c r="A19" s="36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B19" s="37"/>
       <c r="C19" s="36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
@@ -18233,11 +18327,12 @@
       <c r="G19" s="38"/>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
-      <c r="J19" s="37"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="37"/>
     </row>
-    <row r="20" ht="27.95" customHeight="1" spans="1:10">
+    <row r="20" ht="27.95" customHeight="1" spans="1:11">
       <c r="A20" s="39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -18246,10 +18341,11 @@
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="70"/>
     </row>
-    <row r="21" ht="78" customHeight="1" spans="1:10">
+    <row r="21" ht="78" customHeight="1" spans="1:11">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -18258,12 +18354,13 @@
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="73"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" s="40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -18274,8 +18371,9 @@
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
       <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
@@ -18286,15 +18384,16 @@
       <c r="H23" s="40"/>
       <c r="I23" s="40"/>
       <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
     </row>
-    <row r="24" ht="26.25" customHeight="1" spans="1:10">
+    <row r="24" ht="26.25" customHeight="1" spans="1:11">
       <c r="A24" s="41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
       <c r="D24" s="41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
@@ -18302,41 +18401,45 @@
       <c r="H24" s="41"/>
       <c r="I24" s="41"/>
       <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:11">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
+  <mergeCells count="42">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C9:J9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="A11:K11"/>
     <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="D13:H13"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="D14:H14"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I15:K15"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I16:K16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="A18:K18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C19:K19"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="A25:K25"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C6"/>
@@ -18344,12 +18447,12 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="H3:H6"/>
     <mergeCell ref="D3:G4"/>
-    <mergeCell ref="I3:J5"/>
     <mergeCell ref="A12:C14"/>
-    <mergeCell ref="A22:J23"/>
     <mergeCell ref="A20:H21"/>
-    <mergeCell ref="I20:J21"/>
     <mergeCell ref="F5:G6"/>
+    <mergeCell ref="A22:K23"/>
+    <mergeCell ref="I3:K5"/>
+    <mergeCell ref="I20:K21"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.118055555555556" right="0.118055555555556" top="0.235416666666667" bottom="0.118055555555556" header="0.55" footer="0.707638888888889"/>

--- a/src/main/resources/template/excel/export/DOSheet.xlsx
+++ b/src/main/resources/template/excel/export/DOSheet.xlsx
@@ -32,7 +32,23 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="J31")
+          <t>jx:area(lastCell="</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>K26</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">")
 </t>
         </r>
       </text>
@@ -45,7 +61,23 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="J7")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>K</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>7")</t>
         </r>
       </text>
     </comment>
@@ -218,9 +250,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
@@ -286,21 +318,48 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,53 +372,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,17 +404,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,17 +445,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,6 +455,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,13 +488,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,25 +566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,13 +584,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,31 +602,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,37 +632,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,25 +662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,6 +809,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -787,6 +854,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,36 +888,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -849,27 +901,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,10 +911,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -891,137 +923,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1591,7 +1623,7 @@
   <dimension ref="A1:XFD25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A8" sqref="A8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>

--- a/src/main/resources/template/excel/export/DOSheet.xlsx
+++ b/src/main/resources/template/excel/export/DOSheet.xlsx
@@ -262,7 +262,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +392,13 @@
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -563,7 +570,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -641,6 +648,9 @@
     <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -659,15 +669,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -728,6 +738,9 @@
     <xf numFmtId="176" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -806,8 +819,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1118,7 +1131,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1137,101 +1150,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="42" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="64" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="69"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="0.75" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="70"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="73"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="75"/>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
       <c r="I6" s="7" t="s">
         <v>10</v>
       </c>
@@ -1276,16 +1289,19 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="84">
+        <f>SUM(G7:G7:G7:G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="27"/>
       <c r="I8" s="13"/>
       <c r="J8" s="12">
         <f>SUM(J7:J7:J7:J7)</f>
@@ -1296,7 +1312,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="34"/>
@@ -1313,81 +1329,81 @@
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="34"/>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
     </row>
     <row r="12" spans="1:11" ht="18" customHeight="1">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="32"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="34"/>
       <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="32"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="33"/>
       <c r="J13" s="34"/>
       <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="32"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="34"/>
       <c r="K14" s="16"/>
     </row>
@@ -1399,178 +1415,178 @@
       <c r="C15" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42" t="s">
+      <c r="E15" s="42"/>
+      <c r="F15" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43" t="s">
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="44"/>
-      <c r="K15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="46" t="s">
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="47"/>
-      <c r="K16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51" t="s">
+      <c r="B17" s="51"/>
+      <c r="C17" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55" t="s">
+      <c r="B18" s="56"/>
+      <c r="C18" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="82"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="57"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11" ht="30.95" customHeight="1">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="57" t="s">
+      <c r="B20" s="60"/>
+      <c r="C20" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="58"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="60"/>
     </row>
     <row r="21" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="76"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="78"/>
     </row>
     <row r="22" spans="1:11" ht="78" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="79"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="81"/>
     </row>
     <row r="23" spans="1:11" ht="12" customHeight="1">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
     </row>
     <row r="24" spans="1:11" ht="12" customHeight="1">
-      <c r="A24" s="81"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
     </row>
     <row r="25" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60" t="s">
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
     </row>
     <row r="26" spans="1:11" ht="12" customHeight="1">
       <c r="B26" s="3"/>
@@ -1620,9 +1636,9 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:J9"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
